--- a/projects/optimTest.xlsx
+++ b/projects/optimTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12816" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12816" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -1593,19 +1593,19 @@
     <t>Run Data Point Filename</t>
   </si>
   <si>
+    <t>cooling_electricity</t>
+  </si>
+  <si>
+    <t>interior_equipment_electricity</t>
+  </si>
+  <si>
+    <t>scaling factor</t>
+  </si>
+  <si>
+    <t>optim</t>
+  </si>
+  <si>
     <t>run_openstudio_workflow_monthly.rb</t>
-  </si>
-  <si>
-    <t>cooling_electricity</t>
-  </si>
-  <si>
-    <t>interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>scaling factor</t>
-  </si>
-  <si>
-    <t>optim</t>
   </si>
 </sst>
 </file>
@@ -4699,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4869,7 +4869,7 @@
         <v>520</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4888,7 +4888,7 @@
         <v>474</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6192,7 +6192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
@@ -6258,7 +6258,7 @@
         <v>503</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -6318,7 +6318,7 @@
         <v>509</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s">
         <v>510</v>
@@ -6347,7 +6347,7 @@
         <v>511</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C6" t="s">
         <v>512</v>
@@ -6359,7 +6359,7 @@
         <v>121.99850000000001</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F5:F7" si="0">2*E6</f>
+        <f t="shared" ref="F6:F7" si="0">2*E6</f>
         <v>243.99700000000001</v>
       </c>
       <c r="G6"/>

--- a/projects/optimTest.xlsx
+++ b/projects/optimTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12816" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4669,17 +4669,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -4697,23 +4697,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="22"/>
       <c r="B1" s="27"/>
       <c r="C1" s="22"/>
@@ -4722,7 +4722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>443</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>444</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>479</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>458</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="28">
       <c r="A6" s="1" t="s">
         <v>459</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>482</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="13" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>32</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>516</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>517</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>518</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>520</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>474</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A21" s="12" t="s">
         <v>469</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>494</v>
       </c>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>496</v>
       </c>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>498</v>
       </c>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>497</v>
       </c>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>495</v>
       </c>
@@ -4962,73 +4962,73 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B30" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B31" s="25" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B33" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:5" ht="28">
+      <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B34" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D34" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B36" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="14"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5061,30 +5061,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5112,7 +5112,7 @@
       <c r="U1" s="29"/>
       <c r="V1" s="29"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5125,7 +5125,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5278,7 +5278,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5318,7 +5318,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5346,7 +5346,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5374,7 +5374,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5402,7 +5402,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5430,7 +5430,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5458,7 +5458,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5486,7 +5486,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5514,7 +5514,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" customFormat="1">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" t="b">
         <v>0</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>25</v>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24"/>
       <c r="B24" t="s">
         <v>26</v>
@@ -5729,7 +5729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>25</v>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>25</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28"/>
       <c r="B28" t="s">
         <v>25</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>25</v>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32"/>
       <c r="B32" t="s">
         <v>25</v>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" t="b">
         <v>0</v>
       </c>
@@ -5928,7 +5928,7 @@
       <c r="G33"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34"/>
       <c r="B34" t="s">
         <v>25</v>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35"/>
       <c r="B35" t="s">
         <v>26</v>
@@ -5992,7 +5992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36"/>
       <c r="B36" t="s">
         <v>25</v>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37"/>
       <c r="B37" t="s">
         <v>25</v>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38"/>
       <c r="B38" t="s">
         <v>25</v>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39"/>
       <c r="B39" t="s">
         <v>25</v>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40"/>
       <c r="B40" t="s">
         <v>25</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41"/>
       <c r="B41" t="s">
         <v>25</v>
@@ -6128,7 +6128,7 @@
       </c>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42"/>
       <c r="B42" t="s">
         <v>25</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43"/>
       <c r="B43" t="s">
         <v>25</v>
@@ -6192,30 +6192,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -6241,7 +6241,7 @@
       <c r="U1" s="29"/>
       <c r="V1" s="29"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>499</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="15">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -6284,7 +6284,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>506</v>
       </c>
@@ -6313,7 +6313,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>509</v>
       </c>
@@ -6342,7 +6342,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>511</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>513</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6416,7 +6416,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="15"/>
@@ -6432,7 +6432,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6448,7 +6448,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6464,7 +6464,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6480,7 +6480,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6496,7 +6496,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6512,7 +6512,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6528,9 +6528,9 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1"/>
+    <row r="17" spans="1:14" customFormat="1"/>
+    <row r="18" spans="1:14" customFormat="1">
       <c r="C18" s="19"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -6538,10 +6538,10 @@
       <c r="M18" s="3"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1"/>
+    <row r="20" spans="1:14" customFormat="1"/>
+    <row r="21" spans="1:14" customFormat="1"/>
+    <row r="22" spans="1:14">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6550,7 +6550,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -6562,7 +6562,7 @@
       <c r="I23"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -6576,7 +6576,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -6587,7 +6587,7 @@
       <c r="H25"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -6598,7 +6598,7 @@
       <c r="H26"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -6608,7 +6608,7 @@
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -6619,7 +6619,7 @@
       <c r="H28"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -6629,7 +6629,7 @@
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -6640,7 +6640,7 @@
       <c r="H30"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -6650,7 +6650,7 @@
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -6661,7 +6661,7 @@
       <c r="H32"/>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -6670,7 +6670,7 @@
       <c r="G33"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -6682,7 +6682,7 @@
       <c r="I34"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -6696,7 +6696,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -6707,7 +6707,7 @@
       <c r="H36"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -6718,7 +6718,7 @@
       <c r="H37"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -6728,7 +6728,7 @@
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -6739,7 +6739,7 @@
       <c r="H39"/>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -6749,7 +6749,7 @@
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -6760,7 +6760,7 @@
       <c r="H41"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -6770,7 +6770,7 @@
       <c r="G42"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -6787,6 +6787,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6798,19 +6803,19 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6829,7 +6834,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -6850,7 +6855,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -6873,7 +6878,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -6896,7 +6901,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -6919,7 +6924,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -6942,7 +6947,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -6965,7 +6970,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -6988,7 +6993,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -7011,7 +7016,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -7034,7 +7039,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -7053,7 +7058,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -7074,7 +7079,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -7097,7 +7102,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -7120,7 +7125,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -7143,7 +7148,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -7166,7 +7171,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -7189,7 +7194,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -7212,7 +7217,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -7235,7 +7240,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -7258,7 +7263,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -7277,7 +7282,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -7300,7 +7305,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -7323,7 +7328,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -7346,7 +7351,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -7369,7 +7374,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -7392,7 +7397,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -7415,7 +7420,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -7438,7 +7443,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -7461,7 +7466,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -7484,7 +7489,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -7503,7 +7508,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -7524,7 +7529,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -7547,7 +7552,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -7570,7 +7575,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -7593,7 +7598,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -7616,7 +7621,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -7639,7 +7644,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -7662,7 +7667,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -7685,7 +7690,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -7708,7 +7713,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -7727,7 +7732,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -7748,7 +7753,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -7771,7 +7776,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -7794,7 +7799,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -7817,7 +7822,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -7840,7 +7845,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -7863,7 +7868,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -7886,7 +7891,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -7909,7 +7914,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -7932,7 +7937,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7951,7 +7956,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -7972,7 +7977,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -7995,7 +8000,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -8018,7 +8023,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -8041,7 +8046,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -8064,7 +8069,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -8087,7 +8092,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -8110,7 +8115,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -8133,7 +8138,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -8156,7 +8161,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -8175,7 +8180,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -8196,7 +8201,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -8221,7 +8226,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -8244,7 +8249,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -8267,7 +8272,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -8290,7 +8295,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -8313,7 +8318,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -8336,7 +8341,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -8359,7 +8364,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -8382,7 +8387,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -8405,7 +8410,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -8424,7 +8429,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -8445,7 +8450,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -8468,7 +8473,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -8493,7 +8498,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -8516,7 +8521,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -8539,7 +8544,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -8562,7 +8567,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -8585,7 +8590,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -8608,7 +8613,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -8631,7 +8636,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -8654,7 +8659,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -8677,7 +8682,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -8700,7 +8705,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -8723,7 +8728,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -8742,7 +8747,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -8765,7 +8770,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -8788,7 +8793,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -8811,7 +8816,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -8834,7 +8839,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -8857,7 +8862,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -8880,7 +8885,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -8903,7 +8908,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -8926,7 +8931,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -8949,7 +8954,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -8972,7 +8977,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8991,7 +8996,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -9016,7 +9021,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -9035,7 +9040,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -9056,7 +9061,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -9081,7 +9086,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -9100,7 +9105,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -9123,7 +9128,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -9148,7 +9153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -9171,7 +9176,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -9192,7 +9197,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -9211,7 +9216,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -9236,7 +9241,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -9259,7 +9264,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -9282,7 +9287,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -9305,7 +9310,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -9328,7 +9333,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -9351,7 +9356,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -9374,7 +9379,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -9393,7 +9398,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -9416,7 +9421,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -9439,7 +9444,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -9462,7 +9467,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -9481,7 +9486,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -9504,7 +9509,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -9527,7 +9532,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -9550,7 +9555,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -9573,7 +9578,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -9596,7 +9601,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -9619,7 +9624,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -9638,7 +9643,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -9663,7 +9668,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -9686,7 +9691,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -9709,7 +9714,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -9732,7 +9737,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -9755,7 +9760,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -9778,7 +9783,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -9801,7 +9806,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -9824,7 +9829,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -9847,7 +9852,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9866,7 +9871,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -9891,7 +9896,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -9912,7 +9917,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -9935,7 +9940,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -9958,7 +9963,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -9981,7 +9986,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -10004,7 +10009,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -10027,7 +10032,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -10050,7 +10055,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -10073,7 +10078,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -10096,7 +10101,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -10119,7 +10124,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -10142,7 +10147,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -10165,7 +10170,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -10188,7 +10193,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -10207,7 +10212,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -10230,7 +10235,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -10249,7 +10254,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -10272,7 +10277,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -10295,7 +10300,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -10314,7 +10319,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -10339,7 +10344,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -10362,7 +10367,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -10385,7 +10390,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -10408,7 +10413,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -10431,7 +10436,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -10454,7 +10459,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -10477,7 +10482,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -10500,7 +10505,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -10523,7 +10528,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -10546,7 +10551,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -10565,7 +10570,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -10590,7 +10595,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -10613,7 +10618,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -10636,7 +10641,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -10659,7 +10664,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -10682,7 +10687,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -10705,7 +10710,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -10728,7 +10733,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -10751,7 +10756,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -10774,7 +10779,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -10797,7 +10802,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10816,7 +10821,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -10839,7 +10844,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -10862,7 +10867,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -10885,7 +10890,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -10908,7 +10913,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10927,7 +10932,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -10950,7 +10955,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -10973,7 +10978,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -10996,7 +11001,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -11019,7 +11024,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -11038,7 +11043,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -11059,7 +11064,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -11082,7 +11087,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -11101,7 +11106,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -11124,7 +11129,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -11149,7 +11154,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -11170,7 +11175,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -11195,7 +11200,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -11220,7 +11225,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -11239,7 +11244,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -11264,7 +11269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -11287,7 +11292,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -11310,7 +11315,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -11333,7 +11338,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -11356,7 +11361,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -11379,7 +11384,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -11402,7 +11407,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -11425,7 +11430,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -11448,7 +11453,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -11467,7 +11472,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -11492,7 +11497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -11515,7 +11520,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -11538,7 +11543,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -11561,7 +11566,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -11584,7 +11589,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -11607,7 +11612,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -11630,7 +11635,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -11653,7 +11658,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -11676,7 +11681,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -11695,7 +11700,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -11716,7 +11721,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -11739,7 +11744,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -11762,7 +11767,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -11785,7 +11790,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -11808,7 +11813,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -11831,7 +11836,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -11854,7 +11859,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -11877,7 +11882,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -11900,7 +11905,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -11923,7 +11928,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -11946,7 +11951,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -11969,7 +11974,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -11992,7 +11997,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -12015,7 +12020,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -12038,7 +12043,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -12061,7 +12066,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -12080,7 +12085,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -12101,7 +12106,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -12124,7 +12129,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -12147,7 +12152,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -12170,7 +12175,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -12193,7 +12198,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -12216,7 +12221,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -12239,7 +12244,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -12262,7 +12267,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -12285,7 +12290,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -12308,7 +12313,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -12331,7 +12336,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -12354,7 +12359,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -12377,7 +12382,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -12400,7 +12405,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -12423,7 +12428,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -12446,7 +12451,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -12465,7 +12470,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -12490,7 +12495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -12513,7 +12518,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -12536,7 +12541,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -12559,7 +12564,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -12582,7 +12587,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -12601,7 +12606,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -12626,7 +12631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -12649,7 +12654,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -12668,7 +12673,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -12687,7 +12692,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -12706,7 +12711,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -12727,7 +12732,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -12750,7 +12755,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -12773,7 +12778,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -12796,7 +12801,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -12819,7 +12824,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -12842,7 +12847,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -12865,7 +12870,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -12888,7 +12893,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -12911,7 +12916,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -12934,7 +12939,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -12957,7 +12962,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12976,7 +12981,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -12999,7 +13004,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -13018,7 +13023,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -13043,7 +13048,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -13066,7 +13071,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -13089,7 +13094,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -13112,7 +13117,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -13135,7 +13140,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -13158,7 +13163,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -13181,7 +13186,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -13204,7 +13209,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -13227,7 +13232,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -13250,7 +13255,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -13273,7 +13278,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -13292,7 +13297,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -13315,7 +13320,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -13334,7 +13339,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -13355,7 +13360,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -13374,7 +13379,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -13395,7 +13400,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -13414,7 +13419,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -13435,7 +13440,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -13454,7 +13459,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -13477,7 +13482,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -13496,7 +13501,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -13521,7 +13526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -13544,7 +13549,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -13567,7 +13572,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -13590,7 +13595,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -13613,7 +13618,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -13636,7 +13641,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -13659,7 +13664,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -13682,7 +13687,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -13705,7 +13710,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -13724,7 +13729,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -13747,7 +13752,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -13770,7 +13775,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -13793,7 +13798,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -13816,7 +13821,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13835,7 +13840,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -13858,7 +13863,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -13881,7 +13886,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -13906,7 +13911,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13925,7 +13930,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -13950,7 +13955,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -13973,7 +13978,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13992,7 +13997,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -14013,7 +14018,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -14034,7 +14039,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -14057,7 +14062,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -14076,7 +14081,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -14095,7 +14100,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -14120,7 +14125,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -14163,13 +14168,13 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>457</v>
       </c>
@@ -14183,7 +14188,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -14197,7 +14202,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>448</v>
       </c>
@@ -14211,7 +14216,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>455</v>
       </c>
@@ -14222,7 +14227,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>449</v>
       </c>
